--- a/biology/Zoologie/Dipsocoridae/Dipsocoridae.xlsx
+++ b/biology/Zoologie/Dipsocoridae/Dipsocoridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dipsocoridae sont une famille d'insectes hétéroptères (punaises), de l'infra-ordre des Dipsocoromorpha. On en compte une cinquantaine d'espèces décrites, classées dans cinq genres[3]. Il s'agit de petits prédateurs des endroits humides, vivant dans le gravier ou sous des pierres[3]. Elles sont présentes sur tous les continents.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dipsocoridae sont une famille d'insectes hétéroptères (punaises), de l'infra-ordre des Dipsocoromorpha. On en compte une cinquantaine d'espèces décrites, classées dans cinq genres. Il s'agit de petits prédateurs des endroits humides, vivant dans le gravier ou sous des pierres. Elles sont présentes sur tous les continents.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Dipsocoridae est attribuée, en 1859, au zoologiste allemand Anton Dohrn (1840-1909)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Dipsocoridae est attribuée, en 1859, au zoologiste allemand Anton Dohrn (1840-1909).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces petites punaises (moins 3 mm de long) ont des yeux composés, des antennes de quatre articles apparents, flagelliformes, c'est-à-dire que les deux premiers articles sont courts et épais, alors que les deux suivants sont longs et fins. Le pronotum ne présente pas de carène longitudinale. La tête est relativement horizontale et prognathe. On les distingue des Ceratocombidae et de Trichotonannus (Trichotonannidae) notamment par une fracture costale (sur le bord de l'hémélytre) longue, alors qu'elle est courte chez les deux familles mentionnées, et par des organes génitaux asymétriques, orientés vers la gauche[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces petites punaises (moins 3 mm de long) ont des yeux composés, des antennes de quatre articles apparents, flagelliformes, c'est-à-dire que les deux premiers articles sont courts et épais, alors que les deux suivants sont longs et fins. Le pronotum ne présente pas de carène longitudinale. La tête est relativement horizontale et prognathe. On les distingue des Ceratocombidae et de Trichotonannus (Trichotonannidae) notamment par une fracture costale (sur le bord de l'hémélytre) longue, alors qu'elle est courte chez les deux familles mentionnées, et par des organes génitaux asymétriques, orientés vers la gauche. 
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les genres mentionnés comme appartenant à la famille des Dipsocoridae sont les suivants[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les genres mentionnés comme appartenant à la famille des Dipsocoridae sont les suivants :
 Cryptostemma Herrich-Schaeffer, 1835 (présent dans toutes les régions du monde),
 Pachycoleus Fieber, 1860 (paléarctique et néotropical),
-Alpagut Kiyak, 1995 (=Raunocoris ou Harpago) (paléarctique)[6].</t>
+Alpagut Kiyak, 1995 (=Raunocoris ou Harpago) (paléarctique).</t>
         </is>
       </c>
     </row>
@@ -606,9 +624,11 @@
           <t>Espèces présentes en Europe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Fauna Europaea[7], huit espèces sont présentes en Europe :  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea, huit espèces sont présentes en Europe :  
 Arpagut castanovitreus (Linnavuori, 1951) (= Raunocoris castaneovitreus),  présent dans les Balkans et l'Est du Paléarctique
 Alpagut medius  (Rey, 1888) (= Raunocoris medius), présent dans les Balkans, en France et en Ukraine
 Cryptostemma alienum Herrich-Schäffer, 1835, présent en Europe moyenne et méditerranéenne et au Proche-Orient
@@ -644,9 +664,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un fossile de l'espèce †Cryptostemma eocenica Hartung et al., 2017, datant de l'Éocène (55.8 à 48.6 millions d'années) a été trouvé dans de l'ambre  dans l'Oise (France)[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un fossile de l'espèce †Cryptostemma eocenica Hartung et al., 2017, datant de l'Éocène (55.8 à 48.6 millions d'années) a été trouvé dans de l'ambre  dans l'Oise (France).
 </t>
         </is>
       </c>
@@ -675,7 +697,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Anton Dohrn, Catalogus hemipterorum,  (publication), Inconnu, Szczecin, 1859, [lire en ligne]</t>
         </is>
